--- a/weapons_missile_table.xlsx
+++ b/weapons_missile_table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psturge\Google Drive\RuneQuest\RQG\GM_aids\Stat_blocks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psturge.WARWICK\My Drive\RuneQuest\RQG\GM_aids\Stat_blocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EFF77D4-6C47-4F8E-9468-706F0C8C31AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="15" windowWidth="18960" windowHeight="11325"/>
+    <workbookView xWindow="6495" yWindow="3675" windowWidth="30420" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="47">
   <si>
     <r>
       <rPr>
@@ -367,17 +368,26 @@
   </si>
   <si>
     <t>SR</t>
+  </si>
+  <si>
+    <t>Creature</t>
+  </si>
+  <si>
+    <t>SpecialName</t>
+  </si>
+  <si>
+    <t>SpecialText</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="###00;###00"/>
     <numFmt numFmtId="165" formatCode="###0;###0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -412,6 +422,11 @@
       <name val="Gill Sans MT"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -433,45 +448,51 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -491,9 +512,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -531,9 +552,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -568,7 +589,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -603,7 +624,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -776,23 +797,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
-    <col min="2" max="2" width="8" customWidth="1"/>
-    <col min="3" max="3" width="10.5" customWidth="1"/>
-    <col min="4" max="4" width="4.6640625" customWidth="1"/>
-    <col min="5" max="7" width="8" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>32</v>
       </c>
@@ -814,8 +840,17 @@
       <c r="G1" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H1" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>33</v>
       </c>
@@ -836,7 +871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>34</v>
       </c>
@@ -857,7 +892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>35</v>
       </c>
@@ -878,7 +913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -899,7 +934,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>36</v>
       </c>
@@ -920,7 +955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="11" t="s">
         <v>37</v>
       </c>
@@ -941,7 +976,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="11" t="s">
         <v>38</v>
       </c>
@@ -962,7 +997,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>16</v>
       </c>
@@ -983,7 +1018,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
@@ -1004,7 +1039,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>19</v>
       </c>
@@ -1025,7 +1060,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
         <v>39</v>
       </c>
@@ -1046,7 +1081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="11" t="s">
         <v>40</v>
       </c>
@@ -1067,7 +1102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
         <v>41</v>
       </c>
@@ -1088,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
         <v>42</v>
       </c>
@@ -1109,7 +1144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
